--- a/src/main/webapp/assets/excel/plan/Mining_Report_16.xlsx
+++ b/src/main/webapp/assets/excel/plan/Mining_Report_16.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Д/д</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Тайлангийн маягт 16. Эдийн засгийн үзүүлэлтүүд</t>
+  </si>
+  <si>
+    <t>Тодотгол</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -242,6 +245,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -257,26 +281,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,10 +570,10 @@
   <dimension ref="A1:DA3102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -582,134 +591,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:105" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:105" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:105" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="14" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:105" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="U5" s="21"/>
     </row>
     <row r="6" spans="1:105" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="21"/>
     </row>
     <row r="7" spans="1:105" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -772,7 +786,9 @@
       <c r="T7" s="4">
         <v>20</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="20">
+        <v>21</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -71361,7 +71377,17 @@
       <c r="T3102" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="N4:T4"/>
@@ -71378,15 +71404,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
